--- a/ComponentesCamaraUVO.xlsx
+++ b/ComponentesCamaraUVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayrton\OneDrive - puc-rio.br\Área de Trabalho\TextoDoutorado\Texto\Parte2\Experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907492CA-DBCB-42D3-BC98-408E3B606D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C19A97-9E78-45B0-BF68-002C538FFC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B402B29-5107-4457-AB70-3562DE2FD3D8}"/>
   </bookViews>
@@ -56,12 +56,6 @@
     <t>CamaraUVO_Inferior</t>
   </si>
   <si>
-    <t>Casco inferior (SAE1020) (Cienlab)</t>
-  </si>
-  <si>
-    <t>Casco superior (SAE1020) (Cienlab)</t>
-  </si>
-  <si>
     <t>CamaraUVO_Superior</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>Soquete Tombstone Spring &amp; Fixed End</t>
   </si>
   <si>
-    <t>Conexão entre cascos (SAE1020) (Cienlab)</t>
-  </si>
-  <si>
     <t>CamaraUVO_Suporte</t>
   </si>
   <si>
@@ -137,7 +128,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Porta lateral (SAE1020)(Cielab)</t>
+    <t>Casco inferior (SAE1010) (Cienlab)</t>
+  </si>
+  <si>
+    <t>Casco superior (SAE1010) (Cienlab)</t>
+  </si>
+  <si>
+    <t>Conexão entre cascos (SAE1010) (Cienlab)</t>
+  </si>
+  <si>
+    <t>Porta lateral (SAE1010)(Cienlab)</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,15 +698,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +771,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,15 +793,15 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -811,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
